--- a/hwk2/res.xlsx
+++ b/hwk2/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rutgers\2nd Semester\DATA STRUCT &amp; ALGS\Homework\hwk2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF4369-D0AC-464F-9727-D8CF9B9DBBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220905B7-B206-40BC-A322-A2A2BD6C1EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>QSTime</t>
   </si>
@@ -81,13 +81,26 @@
   <si>
     <t>Time (inser)</t>
   </si>
+  <si>
+    <t>QSm3Time</t>
+  </si>
+  <si>
+    <t>Insertion_7</t>
+  </si>
+  <si>
+    <t>Insertion_800</t>
+  </si>
+  <si>
+    <t>Insertion_32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,9 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,6 +543,1558 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="521951600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>data0 Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QSTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4844999999999902E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4866000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33976999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7665999999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7725400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.120058999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-154E-40EB-9E8E-056AC688B7C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QSm3Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.27049999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7835999999999898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.08349999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3321400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8038299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9682599999999898E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-154E-40EB-9E8E-056AC688B7C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3259999999999601E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8770000000000098E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8170000000001799E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1594999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3567000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8570999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-154E-40EB-9E8E-056AC688B7C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4760000000000399E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0620000000000598E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9970000000000802E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1551999999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9958999999999898E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-154E-40EB-9E8E-056AC688B7C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9709999999999801E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7330000000000901E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2669999999999603E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28819999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6105E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4550000000000102E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-154E-40EB-9E8E-056AC688B7C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="111379104"/>
+        <c:axId val="1994484816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="111379104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994484816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1994484816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111379104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>data1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QSTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$H$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.65709999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7530000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.31566999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2.7765299999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.71134999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.12699279999999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8AC-4028-8E03-83F99D7E28D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QSm3Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$H$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.17220000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.75340000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0128299999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1412299999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0884399999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10493769999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8AC-4028-8E03-83F99D7E28D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$H$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0371500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.19225999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000">
+                  <c:v>0.176054299999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69992859999999901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5532452999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000000">
+                  <c:v>10.2634556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8AC-4028-8E03-83F99D7E28D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$H$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.36900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0489000000000194E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8250800000000099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15100999999999901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58348560000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2866499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A8AC-4028-8E03-83F99D7E28D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$H$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1699999999998299E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4449999999999198E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000">
+                  <c:v>2.0000999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4134000000000101E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5547699999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000000">
+                  <c:v>0.100241699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A8AC-4028-8E03-83F99D7E28D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="8669408"/>
+        <c:axId val="1986224976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="8669408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986224976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986224976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8669408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4565,6 +6131,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5427,6 +7073,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -9790,6 +12442,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139E6809-98A2-48CF-8A4B-0948E9012E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F15C6BB-36F5-499B-9CC6-DE5D3D175F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10688,7 +13417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFDB022-3F9C-4A29-9D52-D5A0E454A6CA}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H1" activeCellId="1" sqref="A1:A3 H1:M3"/>
     </sheetView>
   </sheetViews>
@@ -10837,15 +13566,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7D4CED-7B59-4F0A-A405-6D68497DBFAE}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1024</v>
       </c>
@@ -10883,48 +13617,355 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.4513E-3</v>
+        <v>2.4844999999999902E-3</v>
       </c>
       <c r="C2">
-        <v>5.6851999999999996E-3</v>
+        <v>5.4866000000000003E-3</v>
       </c>
       <c r="D2">
-        <v>1.22255E-2</v>
+        <v>1.33976999999999E-2</v>
       </c>
       <c r="E2">
-        <v>2.4341999999999999E-2</v>
+        <v>2.7665999999999899E-2</v>
       </c>
       <c r="F2">
-        <v>5.6042099999999997E-2</v>
+        <v>5.7725400000000003E-2</v>
       </c>
       <c r="G2">
-        <v>0.1119657</v>
+        <v>0.120058999999999</v>
       </c>
       <c r="H2">
-        <v>2.3597000000000201E-3</v>
-      </c>
-      <c r="I2">
-        <v>5.09429999999999E-3</v>
+        <v>2.65709999999996E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5.7530000000000003E-3</v>
       </c>
       <c r="J2">
-        <v>1.12373E-2</v>
+        <v>1.31566999999999E-2</v>
       </c>
       <c r="K2">
-        <v>2.5865499999999899E-2</v>
-      </c>
-      <c r="L2">
-        <v>5.3735699999999997E-2</v>
+        <v>2.7765299999999899E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5.71134999999999E-2</v>
       </c>
       <c r="M2">
-        <v>0.11209759999999901</v>
+        <v>0.12699279999999899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.27049999999999E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.7835999999999898E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.08349999999999E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.3321400000000001E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.8038299999999999E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.9682599999999898E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.17220000000001E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.75340000000001E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0128299999999899E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.1412299999999902E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.0884399999999899E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.10493769999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1.3259999999999601E-4</v>
+      </c>
+      <c r="C4">
+        <v>2.8770000000000098E-4</v>
+      </c>
+      <c r="D4">
+        <v>5.8170000000001799E-4</v>
+      </c>
+      <c r="E4">
+        <v>1.1594999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.3567000000000002E-3</v>
+      </c>
+      <c r="G4">
+        <v>4.8570999999999996E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.0371500000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.19225999999999E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.176054299999998</v>
+      </c>
+      <c r="K4">
+        <v>0.69992859999999901</v>
+      </c>
+      <c r="L4">
+        <v>2.5532452999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10.2634556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.4760000000000399E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0620000000000598E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.9970000000000802E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.1551999999999899E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.2390000000000001E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.9958999999999898E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.36900000000001E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.0489000000000194E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.8250800000000099E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.15100999999999901</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.58348560000000005</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.2866499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>2.9709999999999801E-4</v>
+      </c>
+      <c r="C6">
+        <v>4.7330000000000901E-4</v>
+      </c>
+      <c r="D6">
+        <v>7.2669999999999603E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.28819999999998E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.6105E-3</v>
+      </c>
+      <c r="G6">
+        <v>5.4550000000000102E-3</v>
+      </c>
+      <c r="H6">
+        <v>3.1699999999998299E-4</v>
+      </c>
+      <c r="I6">
+        <v>6.4449999999999198E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.0000999999999999E-3</v>
+      </c>
+      <c r="K6">
+        <v>6.4134000000000101E-3</v>
+      </c>
+      <c r="L6">
+        <v>2.5547699999999899E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.100241699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>1.4760000000000399E-4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.2390000000000001E-3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.0620000000000598E-4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4.9958999999999898E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.9970000000000802E-4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.1551999999999899E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.36900000000001E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.58348560000000005</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9.0489000000000194E-3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2.2866499999999998</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3.8250800000000099E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.15100999999999901</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>1.4760000000000399E-4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.36900000000001E-3</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <v>3.0620000000000598E-4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.0489000000000194E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>5.9970000000000802E-4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3.8250800000000099E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>1.1551999999999899E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.15100999999999901</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>2.2390000000000001E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.58348560000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <v>4.9958999999999898E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.2866499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>2.36900000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>9.0489000000000194E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <v>3.8250800000000099E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <v>0.15100999999999901</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>0.58348560000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <v>2.2866499999999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D20:E25">
+    <sortCondition ref="D20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>